--- a/NBA_2001_2005_All team stats.xlsx
+++ b/NBA_2001_2005_All team stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khila\Desktop\Coding\NBA2025ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C88E8D-8CCD-4FEB-A8B0-CFFA4F4A6FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C5DA6-3A72-445C-BE0E-CB89466884C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{93F93B16-AC2B-4C4C-8235-1D32028C379F}"/>
   </bookViews>

--- a/NBA_2001_2005_All team stats.xlsx
+++ b/NBA_2001_2005_All team stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khila\Desktop\Coding\NBA2025ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C5DA6-3A72-445C-BE0E-CB89466884C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F805193-335E-4E88-8EDC-C8FFBD6AD650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{93F93B16-AC2B-4C4C-8235-1D32028C379F}"/>
+    <workbookView xWindow="3840" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{93F93B16-AC2B-4C4C-8235-1D32028C379F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
